--- a/data/1M/Cyprus 1M.xlsx
+++ b/data/1M/Cyprus 1M.xlsx
@@ -25,9 +25,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -67,12 +66,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -466,7 +468,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42216</v>
       </c>
       <c r="B2" t="n">
@@ -477,7 +479,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42247</v>
       </c>
       <c r="B3" t="n">
@@ -488,7 +490,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42277</v>
       </c>
       <c r="B4" t="n">
@@ -499,7 +501,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42308</v>
       </c>
       <c r="B5" t="n">
@@ -510,7 +512,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42338</v>
       </c>
       <c r="B6" t="n">
@@ -521,7 +523,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42369</v>
       </c>
       <c r="B7" t="n">
@@ -586,7 +588,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42400</v>
       </c>
       <c r="B2" t="n">
@@ -597,7 +599,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42429</v>
       </c>
       <c r="B3" t="n">
@@ -608,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42460</v>
       </c>
       <c r="B4" t="n">
@@ -619,7 +621,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42490</v>
       </c>
       <c r="B5" t="n">
@@ -630,7 +632,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42521</v>
       </c>
       <c r="B6" t="n">
@@ -641,7 +643,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42551</v>
       </c>
       <c r="B7" t="n">
@@ -652,7 +654,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42582</v>
       </c>
       <c r="B8" t="n">
@@ -663,7 +665,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42613</v>
       </c>
       <c r="B9" t="n">
@@ -674,7 +676,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>42643</v>
       </c>
       <c r="B10" t="n">
@@ -685,7 +687,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>42674</v>
       </c>
       <c r="B11" t="n">
@@ -696,7 +698,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>42704</v>
       </c>
       <c r="B12" t="n">
@@ -707,7 +709,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>42735</v>
       </c>
       <c r="B13" t="n">
@@ -754,7 +756,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42766</v>
       </c>
       <c r="B2" t="n">
@@ -765,7 +767,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42794</v>
       </c>
       <c r="B3" t="n">
@@ -776,7 +778,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42825</v>
       </c>
       <c r="B4" t="n">
@@ -787,7 +789,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42855</v>
       </c>
       <c r="B5" t="n">
@@ -798,7 +800,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42886</v>
       </c>
       <c r="B6" t="n">
@@ -809,7 +811,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42916</v>
       </c>
       <c r="B7" t="n">
@@ -820,7 +822,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="B8" t="n">
@@ -831,7 +833,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42978</v>
       </c>
       <c r="B9" t="n">
@@ -842,7 +844,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43008</v>
       </c>
       <c r="B10" t="n">
@@ -853,7 +855,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43039</v>
       </c>
       <c r="B11" t="n">
@@ -864,7 +866,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43069</v>
       </c>
       <c r="B12" t="n">
@@ -875,7 +877,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43100</v>
       </c>
       <c r="B13" t="n">
@@ -922,7 +924,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43131</v>
       </c>
       <c r="B2" t="n">
@@ -933,7 +935,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43159</v>
       </c>
       <c r="B3" t="n">
@@ -944,7 +946,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43190</v>
       </c>
       <c r="B4" t="n">
@@ -955,7 +957,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43220</v>
       </c>
       <c r="B5" t="n">
@@ -966,7 +968,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43251</v>
       </c>
       <c r="B6" t="n">
@@ -977,7 +979,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43281</v>
       </c>
       <c r="B7" t="n">
@@ -988,7 +990,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43312</v>
       </c>
       <c r="B8" t="n">
@@ -999,7 +1001,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43343</v>
       </c>
       <c r="B9" t="n">
@@ -1010,7 +1012,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43373</v>
       </c>
       <c r="B10" t="n">
@@ -1021,7 +1023,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43404</v>
       </c>
       <c r="B11" t="n">
@@ -1032,7 +1034,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43434</v>
       </c>
       <c r="B12" t="n">
@@ -1043,7 +1045,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43465</v>
       </c>
       <c r="B13" t="n">
@@ -1090,7 +1092,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43496</v>
       </c>
       <c r="B2" t="n">
@@ -1101,7 +1103,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43524</v>
       </c>
       <c r="B3" t="n">
@@ -1112,7 +1114,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43555</v>
       </c>
       <c r="B4" t="n">
@@ -1123,7 +1125,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43585</v>
       </c>
       <c r="B5" t="n">
@@ -1134,7 +1136,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43616</v>
       </c>
       <c r="B6" t="n">
@@ -1145,7 +1147,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43646</v>
       </c>
       <c r="B7" t="n">
@@ -1156,7 +1158,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="B8" t="n">
@@ -1167,7 +1169,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43708</v>
       </c>
       <c r="B9" t="n">
@@ -1178,7 +1180,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="B10" t="n">
@@ -1189,7 +1191,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="B11" t="n">
@@ -1200,7 +1202,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43799</v>
       </c>
       <c r="B12" t="n">
@@ -1211,7 +1213,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43830</v>
       </c>
       <c r="B13" t="n">
@@ -1258,7 +1260,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43861</v>
       </c>
       <c r="B2" t="n">
@@ -1269,7 +1271,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43890</v>
       </c>
       <c r="B3" t="n">
@@ -1280,7 +1282,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43921</v>
       </c>
       <c r="B4" t="n">
@@ -1291,7 +1293,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43951</v>
       </c>
       <c r="B5" t="n">
@@ -1302,7 +1304,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43982</v>
       </c>
       <c r="B6" t="n">
@@ -1313,7 +1315,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44012</v>
       </c>
       <c r="B7" t="n">
@@ -1324,7 +1326,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44043</v>
       </c>
       <c r="B8" t="n">
@@ -1335,7 +1337,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44074</v>
       </c>
       <c r="B9" t="n">
@@ -1346,7 +1348,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44104</v>
       </c>
       <c r="B10" t="n">
@@ -1357,7 +1359,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44135</v>
       </c>
       <c r="B11" t="n">
@@ -1368,7 +1370,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44165</v>
       </c>
       <c r="B12" t="n">
@@ -1379,7 +1381,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44196</v>
       </c>
       <c r="B13" t="n">
@@ -1426,7 +1428,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44227</v>
       </c>
       <c r="B2" t="n">
@@ -1437,7 +1439,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44255</v>
       </c>
       <c r="B3" t="n">
@@ -1448,7 +1450,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44286</v>
       </c>
       <c r="B4" t="n">
@@ -1459,7 +1461,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44316</v>
       </c>
       <c r="B5" t="n">
@@ -1470,7 +1472,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="B6" t="n">
@@ -1481,7 +1483,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="B7" t="n">
@@ -1492,7 +1494,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44408</v>
       </c>
       <c r="B8" t="n">
@@ -1503,7 +1505,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="B9" t="n">
@@ -1514,7 +1516,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="B10" t="n">
@@ -1525,7 +1527,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44500</v>
       </c>
       <c r="B11" t="n">
@@ -1536,7 +1538,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44530</v>
       </c>
       <c r="B12" t="n">
@@ -1547,7 +1549,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="B13" t="n">
@@ -1594,7 +1596,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44592</v>
       </c>
       <c r="B2" t="n">
@@ -1605,7 +1607,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44620</v>
       </c>
       <c r="B3" t="n">
@@ -1616,7 +1618,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44651</v>
       </c>
       <c r="B4" t="n">
@@ -1627,7 +1629,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44681</v>
       </c>
       <c r="B5" t="n">
@@ -1638,7 +1640,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44712</v>
       </c>
       <c r="B6" t="n">
@@ -1649,7 +1651,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="B7" t="n">
@@ -1915,9 +1917,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B33FDDE8-675F-4EEE-A735-FC2F7F2B9139}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E3D36C6-365C-4D7E-B19F-7C8A61B86FBC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C1A54EB-842C-4792-9B5A-B71B9EEC6604}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EB12BA6-0138-4630-8591-098E9B01407F}"/>
 </file>